--- a/data/bug reports/AspectJ.xlsx
+++ b/data/bug reports/AspectJ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/huy_tq226109_sis_hust_edu_vn/Documents/TÀI LIỆU HỌC TẬP/ISE LAB/NLP/Challenge Task NLP 1 - Bug Localization/data/bug reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/huy_tq226109_sis_hust_edu_vn/Documents/TÀI LIỆU HỌC TẬP/ISE LAB/NLP/GIT Bug Localization/data/bug reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_FF2A80F14DCD6F0933843E94A229BFA677CF47C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00E5E160-53DB-AC46-A588-9FBCEB3004CF}"/>
@@ -10284,8 +10284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K594"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:N2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
